--- a/Subtítulos.xlsx
+++ b/Subtítulos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aebcc918cf2e94e6/Projetos/App/Flashcards Bíblia/Subtitulos e versiculos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC6A1A7F-0251-4B9A-B382-C7FA723595CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20825D9A-C418-4496-BB1A-57DBBD2BEB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2F214A79-CCCA-4680-A29D-2474BF9A9AAC}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2F214A79-CCCA-4680-A29D-2474BF9A9AAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -8104,8 +8104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040151C9-4508-4BAE-B10A-7523E2B06BFB}">
   <dimension ref="A1:E2934"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2917" workbookViewId="0">
+      <selection activeCell="A2936" sqref="A2936"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
